--- a/Data/EUDA/Tampon/statut_pro_jamais_traite.xlsx
+++ b/Data/EUDA/Tampon/statut_pro_jamais_traite.xlsx
@@ -441,42 +441,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Occasionally employed.jamais</t>
+          <t>Occasionally employed.jamais.pro</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Regularly employed.jamais</t>
+          <t>Regularly employed.jamais.pro</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Student.jamais</t>
+          <t>Student.jamais.pro</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Unemployed / discouraged.jamais</t>
+          <t>Unemployed / discouraged.jamais.pro</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Receiving social benefits / pensioners / house-makers / disable.jamais</t>
+          <t>Receiving social benefits / pensioners / house-makers / disable.jamais.pro</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Other.jamais</t>
+          <t>Other.jamais.pro</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Not known / missing.jamais</t>
+          <t>Not known / missing.jamais.pro</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Total.jamais</t>
+          <t>Total.jamais.pro</t>
         </is>
       </c>
     </row>
